--- a/Shares.Model.Test/Indicators/AdxTests.xlsx
+++ b/Shares.Model.Test/Indicators/AdxTests.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>High</t>
   </si>
@@ -32,40 +32,43 @@
     <t>Close</t>
   </si>
   <si>
-    <t>TR</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>+DM 1</t>
+    <t>Tr</t>
   </si>
   <si>
-    <t>-DM 1</t>
+    <t>Tr14</t>
   </si>
   <si>
-    <t>TR14</t>
+    <t>Di14Diff</t>
   </si>
   <si>
-    <t>+DM14</t>
+    <t>Di14Sum</t>
   </si>
   <si>
-    <t>-DM14</t>
+    <t>Dx</t>
   </si>
   <si>
-    <t>+DI14</t>
+    <t>Adx</t>
   </si>
   <si>
-    <t>-DI14</t>
+    <t>MinusDm1</t>
   </si>
   <si>
-    <t>DI 14 Diff</t>
+    <t>PlusDm1</t>
   </si>
   <si>
-    <t>DI 14 Sum</t>
+    <t>PlusDm14</t>
   </si>
   <si>
-    <t>DX</t>
+    <t>MinusDm14</t>
   </si>
   <si>
-    <t>ADX</t>
+    <t>PlusDi14</t>
+  </si>
+  <si>
+    <t>MinusDi14</t>
   </si>
 </sst>
 </file>
@@ -470,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J498" workbookViewId="0">
-      <selection activeCell="Q506" sqref="Q506"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -480,7 +483,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -491,40 +496,40 @@
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
